--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="复杂度1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>成功率</t>
   </si>
   <si>
-    <t>对地打击无人机</t>
+    <t>消防无人机</t>
   </si>
   <si>
     <t>一架消防无人机能遵循导航路线飞行，还可以发射灭火弹</t>
@@ -66,7 +66,7 @@
     <t>该消防无人机的任务是遵循导航路线搜索指定区域，扑灭发现的山火。</t>
   </si>
   <si>
-    <t>对地侦查无人机</t>
+    <t>植保无人机</t>
   </si>
   <si>
     <t>一架植保无人机配备智能飞控系统可实现自主巡航作业，携带多光谱成像传感器能够实时监测作物生长状态和病虫害分布，装配药箱支持可调节药量的喷洒功能</t>
@@ -75,7 +75,7 @@
     <t>该植保无人机的任务是遵循导航路线搜索指定区域，发现病虫害就喷洒农药。</t>
   </si>
   <si>
-    <t>地面巡检机器人</t>
+    <t>电力巡检机器人</t>
   </si>
   <si>
     <t>一台电力巡检机器人配备四驱底盘可移动，携带红外测温仪可以检测电线温度和卫星定位仪可以确定位置坐标，还搭载通信模块支持实时数据传输。</t>
@@ -359,7 +359,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,13 +386,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -878,28 +871,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,118 +904,115 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,13 +1174,13 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>对地打击无人机</c:v>
+                  <c:v>消防无人机</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>对地侦查无人机</c:v>
+                  <c:v>植保无人机</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>地面巡检机器人</c:v>
+                  <c:v>电力巡检机器人</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>侦查潜航器</c:v>
@@ -1445,13 +1438,13 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>对地打击无人机</c:v>
+                  <c:v>消防无人机</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>对地侦查无人机</c:v>
+                  <c:v>植保无人机</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>地面巡检机器人</c:v>
+                  <c:v>电力巡检机器人</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>侦查潜航器</c:v>
@@ -1617,13 +1610,13 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>对地打击无人机</c:v>
+                  <c:v>消防无人机</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>对地侦查无人机</c:v>
+                  <c:v>植保无人机</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>地面巡检机器人</c:v>
+                  <c:v>电力巡检机器人</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>侦查潜航器</c:v>
@@ -1971,13 +1964,13 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>对地打击无人机</c:v>
+                  <c:v>消防无人机</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>对地侦查无人机</c:v>
+                  <c:v>植保无人机</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>地面巡检机器人</c:v>
+                  <c:v>电力巡检机器人</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>侦查潜航器</c:v>
@@ -2264,13 +2257,13 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>对地打击无人机</c:v>
+                  <c:v>消防无人机</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>对地侦查无人机</c:v>
+                  <c:v>植保无人机</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>地面巡检机器人</c:v>
+                  <c:v>电力巡检机器人</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>侦查潜航器</c:v>
@@ -2436,13 +2429,13 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>对地打击无人机</c:v>
+                  <c:v>消防无人机</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>对地侦查无人机</c:v>
+                  <c:v>植保无人机</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>地面巡检机器人</c:v>
+                  <c:v>电力巡检机器人</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>侦查潜航器</c:v>
@@ -4946,16 +4939,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3550920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1988820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1075055</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4963,7 +4956,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4778375" y="3389630"/>
+        <a:off x="7669530" y="2545080"/>
         <a:ext cx="5410835" cy="2908300"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5268,7 +5261,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5625,7 +5618,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
